--- a/Companies/IT Services & Consulting/Infosys Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
+++ b/Companies/IT Services & Consulting/Infosys Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '23</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '23</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '24</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '24</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '24</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '24</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '24</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '23</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '23</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>32,629.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>32,491.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32,001.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>33,283.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>34,257.00</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>33,283.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>32,001.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>32,491.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>32,629.00</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>34257</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>32001</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>32932.2</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>32,629.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>32,491.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32,001.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33,283.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>34,257.00</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>33,283.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32,001.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>32,491.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>32,629.00</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>34257</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>32001</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>32932.2</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>16,435.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16,304.00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16,047.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>16,495.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>16,864.00</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>16,495.00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16,047.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>16,304.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>16,435.00</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>16864</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>16047</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>16429</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>738.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>738.00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>722.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>698.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>670.00</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>698.00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>722.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>738.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>738.00</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>738</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>670</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>713.2</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>8,200.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8,073.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8,239.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8,624.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>8,992.00</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>8,624.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8,239.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>8,073.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8,200.00</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>8992</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>8073</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>8425.6</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>7,256.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7,376.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6,993.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7,466.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>7,731.00</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>7,466.00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6,993.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>7,376.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7,256.00</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>7731</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>6993</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>7364.4</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1,350.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,582.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3,483.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>721.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1,737.00</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>721.00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3,483.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,582.00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1,350.00</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>3483</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>721</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1774.6</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>8,606.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>8,958.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10,476.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8,187.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>9,468.00</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>8,187.00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>10,476.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8,958.00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8,606.00</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>10476</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>8187</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>9139</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>62.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>59.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>61.00</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>59.00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>62.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>82.00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>89.00</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>8,517.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8,876.00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10,414.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8,128.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>9,407.00</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>8,128.00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>10,414.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8,876.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8,517.00</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>10414</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>8128</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>9068.4</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>8,517.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8,876.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10,414.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8,128.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>9,407.00</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>8,128.00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10,414.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8,876.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8,517.00</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>10414</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>8128</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>9068.4</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>2,272.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2,324.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1,934.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2,360.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2,594.00</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2,360.00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1,934.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2,324.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2,272.00</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>2594</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>1934</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>2296.8</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>6,245.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6,552.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8,480.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>5,768.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>6,813.00</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>5,768.00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8,480.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6,552.00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6,245.00</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>8480</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>5768</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>6771.6</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>6,245.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6,552.00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8,480.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5,768.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>6,813.00</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>5,768.00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>8,480.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6,552.00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6,245.00</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>8480</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>5768</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>6771.6</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>2,075.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2,075.00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,075.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>2,076.00</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2,076.00</t>
         </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2,075.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2,075.00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2,075.00</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>2076</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>2075</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2075.4</v>
       </c>
     </row>
     <row r="19"/>
@@ -1135,37 +977,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>16.41</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>13.90</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>20.43</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>15.79</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>15.05</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>20.43</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>16.316</v>
       </c>
     </row>
     <row r="22">
@@ -1176,37 +1009,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>16.38</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>13.87</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>20.41</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>15.78</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>15.04</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>20.41</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>16.296</v>
       </c>
     </row>
     <row r="23"/>
@@ -1225,37 +1049,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>16.41</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>13.90</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>20.43</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>15.79</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>15.05</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>20.43</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>16.316</v>
       </c>
     </row>
     <row r="26">
@@ -1266,37 +1081,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>16.38</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>13.87</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>20.41</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>15.78</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>15.04</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>20.41</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>16.296</v>
       </c>
     </row>
     <row r="27"/>
